--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/ValueSet-jp-medicationcode-immunization-vs.xlsx
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
